--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H2">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N2">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q2">
-        <v>652.7430163285482</v>
+        <v>1272.686217995506</v>
       </c>
       <c r="R2">
-        <v>652.7430163285482</v>
+        <v>11454.17596195956</v>
       </c>
       <c r="S2">
-        <v>0.003589334802056054</v>
+        <v>0.006118273369924755</v>
       </c>
       <c r="T2">
-        <v>0.003589334802056054</v>
+        <v>0.006118273369924755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H3">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N3">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q3">
-        <v>1028.220095069451</v>
+        <v>1648.302808797617</v>
       </c>
       <c r="R3">
-        <v>1028.220095069451</v>
+        <v>14834.72527917855</v>
       </c>
       <c r="S3">
-        <v>0.005654026284593053</v>
+        <v>0.007924001248730616</v>
       </c>
       <c r="T3">
-        <v>0.005654026284593053</v>
+        <v>0.007924001248730614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H4">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N4">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q4">
-        <v>554.3524546581704</v>
+        <v>1033.898921243642</v>
       </c>
       <c r="R4">
-        <v>554.3524546581704</v>
+        <v>9305.090291192777</v>
       </c>
       <c r="S4">
-        <v>0.003048300032839046</v>
+        <v>0.004970334515762974</v>
       </c>
       <c r="T4">
-        <v>0.003048300032839046</v>
+        <v>0.004970334515762974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H5">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N5">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q5">
-        <v>290.7334118355534</v>
+        <v>468.6049215003638</v>
       </c>
       <c r="R5">
-        <v>290.7334118355534</v>
+        <v>4217.444293503275</v>
       </c>
       <c r="S5">
-        <v>0.001598698916905145</v>
+        <v>0.002252757177450224</v>
       </c>
       <c r="T5">
-        <v>0.001598698916905145</v>
+        <v>0.002252757177450224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N6">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q6">
-        <v>43242.85479145875</v>
+        <v>52754.75606967116</v>
       </c>
       <c r="R6">
-        <v>43242.85479145875</v>
+        <v>474792.8046270404</v>
       </c>
       <c r="S6">
-        <v>0.2377858969924469</v>
+        <v>0.2536116244790553</v>
       </c>
       <c r="T6">
-        <v>0.2377858969924469</v>
+        <v>0.2536116244790553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N7">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q7">
-        <v>68117.42317035883</v>
+        <v>68324.62815856401</v>
       </c>
       <c r="R7">
-        <v>68117.42317035883</v>
+        <v>614921.6534270761</v>
       </c>
       <c r="S7">
-        <v>0.3745673741359264</v>
+        <v>0.3284617583358079</v>
       </c>
       <c r="T7">
-        <v>0.3745673741359264</v>
+        <v>0.3284617583358079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N8">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q8">
-        <v>36724.68659244322</v>
+        <v>42856.66381836867</v>
       </c>
       <c r="R8">
-        <v>36724.68659244322</v>
+        <v>385709.9743653181</v>
       </c>
       <c r="S8">
-        <v>0.2019434791080318</v>
+        <v>0.2060278340852346</v>
       </c>
       <c r="T8">
-        <v>0.2019434791080318</v>
+        <v>0.2060278340852346</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N9">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q9">
-        <v>19260.47831464231</v>
+        <v>19424.37812026844</v>
       </c>
       <c r="R9">
-        <v>19260.47831464231</v>
+        <v>174819.4030824159</v>
       </c>
       <c r="S9">
-        <v>0.1059104477407306</v>
+        <v>0.09338016999018613</v>
       </c>
       <c r="T9">
-        <v>0.1059104477407306</v>
+        <v>0.09338016999018613</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H10">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N10">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q10">
-        <v>932.3973952285592</v>
+        <v>3153.044982023451</v>
       </c>
       <c r="R10">
-        <v>932.3973952285592</v>
+        <v>28377.40483821106</v>
       </c>
       <c r="S10">
-        <v>0.005127111797938836</v>
+        <v>0.01515785342444643</v>
       </c>
       <c r="T10">
-        <v>0.005127111797938836</v>
+        <v>0.01515785342444643</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H11">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N11">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q11">
-        <v>1468.739939581162</v>
+        <v>4083.624719626559</v>
       </c>
       <c r="R11">
-        <v>1468.739939581162</v>
+        <v>36752.62247663904</v>
       </c>
       <c r="S11">
-        <v>0.008076378066762636</v>
+        <v>0.01963149441046736</v>
       </c>
       <c r="T11">
-        <v>0.008076378066762636</v>
+        <v>0.01963149441046736</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H12">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N12">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q12">
-        <v>791.8534121882877</v>
+        <v>2561.456044272363</v>
       </c>
       <c r="R12">
-        <v>791.8534121882877</v>
+        <v>23053.10439845127</v>
       </c>
       <c r="S12">
-        <v>0.004354281760808096</v>
+        <v>0.01231386659359561</v>
       </c>
       <c r="T12">
-        <v>0.004354281760808096</v>
+        <v>0.01231386659359561</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H13">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N13">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q13">
-        <v>415.2921886872222</v>
+        <v>1160.955760655084</v>
       </c>
       <c r="R13">
-        <v>415.2921886872222</v>
+        <v>10448.60184589576</v>
       </c>
       <c r="S13">
-        <v>0.00228362873073895</v>
+        <v>0.005581143736485264</v>
       </c>
       <c r="T13">
-        <v>0.00228362873073895</v>
+        <v>0.005581143736485264</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H14">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N14">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O14">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P14">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q14">
-        <v>2164.524401827754</v>
+        <v>2667.351668555595</v>
       </c>
       <c r="R14">
-        <v>2164.524401827754</v>
+        <v>24006.16501700035</v>
       </c>
       <c r="S14">
-        <v>0.01190239124897724</v>
+        <v>0.01282294602643813</v>
       </c>
       <c r="T14">
-        <v>0.01190239124897724</v>
+        <v>0.01282294602643813</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H15">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N15">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P15">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q15">
-        <v>3409.622823306092</v>
+        <v>3454.585415606913</v>
       </c>
       <c r="R15">
-        <v>3409.622823306092</v>
+        <v>31091.26874046222</v>
       </c>
       <c r="S15">
-        <v>0.01874899854220306</v>
+        <v>0.01660746981744471</v>
       </c>
       <c r="T15">
-        <v>0.01874899854220306</v>
+        <v>0.0166074698174447</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H16">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N16">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O16">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P16">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q16">
-        <v>1838.256994413813</v>
+        <v>2166.89076514129</v>
       </c>
       <c r="R16">
-        <v>1838.256994413813</v>
+        <v>19502.01688627161</v>
       </c>
       <c r="S16">
-        <v>0.01010829628217945</v>
+        <v>0.0104170453615666</v>
       </c>
       <c r="T16">
-        <v>0.01010829628217945</v>
+        <v>0.0104170453615666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H17">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N17">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O17">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P17">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q17">
-        <v>964.0847142023579</v>
+        <v>982.1227743206159</v>
       </c>
       <c r="R17">
-        <v>964.0847142023579</v>
+        <v>8839.104968885544</v>
       </c>
       <c r="S17">
-        <v>0.005301355556862882</v>
+        <v>0.004721427427403525</v>
       </c>
       <c r="T17">
-        <v>0.005301355556862882</v>
+        <v>0.004721427427403525</v>
       </c>
     </row>
   </sheetData>
